--- a/data/trans_orig/Q31A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Clase-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>17.81063841317948</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>18.23642115014</v>
+        <v>18.23642115013999</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>17.62020638374849</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>17.24082807432007</v>
+        <v>17.25356082189471</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>17.57106144876137</v>
+        <v>17.54477268503877</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17.01772167581871</v>
+        <v>16.98590430041095</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.48078168898111</v>
+        <v>17.49554826923475</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>17.64467428311906</v>
+        <v>17.67616939151702</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.75965512460095</v>
+        <v>17.7540834084613</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>17.26266286647489</v>
+        <v>17.25932153548517</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>17.7357881221715</v>
+        <v>17.74096830827447</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>17.43468972008527</v>
+        <v>17.41447488007955</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17.71910112426349</v>
+        <v>17.73126087253446</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17.17748214127531</v>
+        <v>17.18056900150775</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>17.67377946608793</v>
+        <v>17.66631334774825</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.74179002349269</v>
+        <v>17.7389358845978</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.87432776770455</v>
+        <v>18.87733361994442</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.73855237113516</v>
+        <v>17.6914962384116</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.27491658027441</v>
+        <v>18.2549564569461</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.25208867208584</v>
+        <v>18.23955102383094</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.6089000926528</v>
+        <v>18.63302686311932</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>18.93385061970386</v>
+        <v>18.94483649859227</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.8513067259428</v>
+        <v>18.88448618614641</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.82691690458714</v>
+        <v>17.80840527333256</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18.58332473454469</v>
+        <v>18.54584304569448</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17.91490364351441</v>
+        <v>17.87388551767297</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>18.31544495069236</v>
+        <v>18.31036475525532</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>17.38721124967453</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17.31384754427449</v>
+        <v>17.3138475442745</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>18.40425974083518</v>
@@ -829,7 +829,7 @@
         <v>17.86676263146647</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>18.28849990222066</v>
+        <v>18.28849990222067</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>17.331559689392</v>
+        <v>17.3436923677179</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>17.46796939118395</v>
+        <v>17.47984176762241</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17.07822636445544</v>
+        <v>17.0770292023154</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.93806627981775</v>
+        <v>16.93485711206812</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>17.96477159423235</v>
+        <v>17.97644526035244</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.89454134106835</v>
+        <v>17.90465918383573</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>17.99657951313995</v>
+        <v>18.00073029166166</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>18.9042074755357</v>
+        <v>18.88587433622182</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>17.67581251694375</v>
+        <v>17.65886947266167</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17.70938186356153</v>
+        <v>17.70995378679813</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17.57918533611424</v>
+        <v>17.57581374080478</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>17.83081785809953</v>
+        <v>17.85864314546243</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.84962136750086</v>
+        <v>17.86718550535462</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.05286155187802</v>
+        <v>18.06256206243344</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.73971739639383</v>
+        <v>17.74071089313778</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.81225917259573</v>
+        <v>17.82283711985685</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>19.12074606241871</v>
+        <v>19.0308110358009</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>18.96725806496897</v>
+        <v>18.98716462148636</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>19.16675678852263</v>
+        <v>19.1808707280375</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>21.02253664450404</v>
+        <v>21.12409132981555</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>18.21151411463185</v>
+        <v>18.21882813156413</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18.26582414176415</v>
+        <v>18.26142759797905</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18.22104754307582</v>
+        <v>18.2276929986573</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>18.84816528870953</v>
+        <v>18.89117025611168</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>17.17271055964668</v>
+        <v>17.14981073904168</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.98273532859749</v>
+        <v>16.96208598898922</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.77133629820695</v>
+        <v>16.78822736448016</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16.5381683216888</v>
+        <v>16.48047360746569</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.77665401531185</v>
+        <v>17.79334369590343</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.41154588087257</v>
+        <v>18.49377153964623</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>18.50560076593371</v>
+        <v>18.64243390641272</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>18.4477991459944</v>
+        <v>18.38065408901726</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>17.31916777303333</v>
+        <v>17.32495452285124</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17.30763422049486</v>
+        <v>17.3027803553764</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17.20269511175186</v>
+        <v>17.20481711746788</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>16.95238454831016</v>
+        <v>16.9432430121289</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.61476212351275</v>
+        <v>17.58836265194655</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.48652411751909</v>
+        <v>17.49367804451304</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.45759774879922</v>
+        <v>17.4808150375569</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.1025595664068</v>
+        <v>17.04951508537715</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>20.53462193789684</v>
+        <v>20.83726869221118</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>21.79230098479798</v>
+        <v>22.21588147130002</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>27.1062024337248</v>
+        <v>26.80575340897918</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>21.43088206403628</v>
+        <v>21.22582642190291</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.83870271762384</v>
+        <v>17.87125481152568</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18.02627971077951</v>
+        <v>18.02908640991813</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18.4275283415829</v>
+        <v>18.49025156174606</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.61694083598593</v>
+        <v>17.6689286820352</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.92476637051687</v>
+        <v>16.91902513665366</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.0221787272823</v>
+        <v>17.03495260311843</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.77611562410979</v>
+        <v>16.78900365121632</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16.92974608626222</v>
+        <v>16.90229874067592</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.53985328086238</v>
+        <v>17.5403224171122</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>18.31463075727347</v>
+        <v>18.30826615870921</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>17.80633974194976</v>
+        <v>17.78859819310465</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>17.73680408389798</v>
+        <v>17.69826851229524</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>17.1189637098081</v>
+        <v>17.12392911520625</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17.42291322670682</v>
+        <v>17.41362600172651</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17.16125330584073</v>
+        <v>17.16962757932392</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>17.21588752744775</v>
+        <v>17.21079822481377</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.23906827938102</v>
+        <v>17.22264496094774</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.61666130468111</v>
+        <v>17.59426312394699</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.17450241637995</v>
+        <v>17.1889438313549</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.43245253021275</v>
+        <v>17.43583841581791</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18.35611383366045</v>
+        <v>18.33256441848023</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.66901760244689</v>
+        <v>19.49169548641575</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>18.70514776970041</v>
+        <v>18.73368886189865</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>18.64027933019849</v>
+        <v>18.65092002572241</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.41838217208244</v>
+        <v>17.41796788276859</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17.93764902687822</v>
+        <v>17.9245271588599</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17.58780010525489</v>
+        <v>17.57491754861391</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>17.67844919264588</v>
+        <v>17.67511138249459</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.31718737298067</v>
+        <v>16.29180012945774</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.96559022110939</v>
+        <v>16.9590932536417</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.5864569546622</v>
+        <v>16.56558966372454</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16.53866726665983</v>
+        <v>16.49560867028817</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>18.17087940610894</v>
+        <v>18.19702849987457</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>19.23403983615498</v>
+        <v>19.21636996661211</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>18.93992527972926</v>
+        <v>18.88880585690317</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>18.04216976464615</v>
+        <v>18.04029609484521</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>17.11622979119394</v>
+        <v>17.14082307290867</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17.9221142577366</v>
+        <v>17.94554585539816</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17.5225762909834</v>
+        <v>17.54469625605318</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>17.13895097839897</v>
+        <v>17.13684187165556</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.93513285155901</v>
+        <v>16.92447884977847</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.61724403367261</v>
+        <v>17.58320875434703</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.11511997101857</v>
+        <v>17.08401662706317</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.06195098619411</v>
+        <v>17.02967812446355</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>19.49816672045959</v>
+        <v>19.47172479268991</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>21.07512982517594</v>
+        <v>21.02680018405559</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>20.44383259981903</v>
+        <v>20.45312531955683</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>19.10964944896376</v>
+        <v>19.10209711864499</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.81573462520518</v>
+        <v>17.79570303505449</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18.72616283532065</v>
+        <v>18.71354741136695</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18.22231600882755</v>
+        <v>18.26076947431566</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>17.64805497362463</v>
+        <v>17.6796594934512</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.50512621510449</v>
+        <v>15.53802618219846</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>16.02255939460793</v>
+        <v>16.02956550980683</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16.05751668521352</v>
+        <v>16.06798474544971</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16.30672157864542</v>
+        <v>16.28080975124221</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>17.46830180260954</v>
+        <v>17.48430302497889</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.72517882283604</v>
+        <v>17.71668380732211</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>17.8325397175342</v>
+        <v>17.87547310952758</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>17.63835473923517</v>
+        <v>17.62405802207966</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>16.74405719747437</v>
+        <v>16.75878348525499</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17.17961790197987</v>
+        <v>17.18118058886081</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17.21760850054421</v>
+        <v>17.21922719257825</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>17.21607315239032</v>
+        <v>17.20037847191404</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>16.05236832311585</v>
+        <v>16.08788552924819</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>16.58521451796139</v>
+        <v>16.59102899848393</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.5028045992692</v>
+        <v>16.49524344198941</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17.03367537788213</v>
+        <v>17.04024119200285</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>18.16124266881922</v>
+        <v>18.14079298141881</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>19.28357265099149</v>
+        <v>19.25897223438998</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>19.28983306539828</v>
+        <v>19.40804152953527</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>19.50608229166681</v>
+        <v>19.41271885592821</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>17.27268354112483</v>
+        <v>17.27001013911823</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18.18609443279725</v>
+        <v>18.24689905193884</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18.19191290537411</v>
+        <v>18.11710754733479</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>18.35134580310547</v>
+        <v>18.42878940932534</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>16.99927637806801</v>
+        <v>17.00833145273436</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>17.20061578532714</v>
+        <v>17.20263792077775</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16.891246029259</v>
+        <v>16.89502231109229</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.03082774410889</v>
+        <v>17.037632333455</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>17.9558959599669</v>
+        <v>17.96163594754342</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.49812263301502</v>
+        <v>18.49405693301805</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>18.30447787052385</v>
+        <v>18.30222793463783</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>18.30879951881181</v>
+        <v>18.347162259015</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>17.34832935157409</v>
+        <v>17.34261788257134</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17.67971240937184</v>
+        <v>17.68726247130319</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17.43962224291922</v>
+        <v>17.44715231646677</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>17.5233264260605</v>
+        <v>17.51885124705065</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.18882048524015</v>
+        <v>17.20594227488704</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.50118391759312</v>
+        <v>17.50997730165897</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.12780133627652</v>
+        <v>17.12659462699887</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.31557717071117</v>
+        <v>17.30075037433421</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.358496126549</v>
+        <v>18.37166508184007</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.09891884277324</v>
+        <v>19.09841284030235</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>18.93556728157401</v>
+        <v>18.96419440040767</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>18.91085103771768</v>
+        <v>18.94170470390588</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.53331563526145</v>
+        <v>17.52448000601354</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17.97710570189765</v>
+        <v>17.97755776853616</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17.74257017494772</v>
+        <v>17.71550115356032</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>17.79681847570294</v>
+        <v>17.80739084604686</v>
       </c>
     </row>
     <row r="25">
